--- a/fourth_stage/output/spreadsheets/45s_TotalTransactions.xlsx
+++ b/fourth_stage/output/spreadsheets/45s_TotalTransactions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,16 @@
           <t>5veh</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>7veh</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>9veh</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -463,6 +473,12 @@
       <c r="D2" t="n">
         <v>969.75</v>
       </c>
+      <c r="E2" t="n">
+        <v>1324.75</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1655.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -477,6 +493,12 @@
       <c r="D3" t="n">
         <v>1941</v>
       </c>
+      <c r="E3" t="n">
+        <v>2661.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3296.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -491,6 +513,12 @@
       <c r="D4" t="n">
         <v>2925.75</v>
       </c>
+      <c r="E4" t="n">
+        <v>3987.75</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5029.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -504,6 +532,12 @@
       </c>
       <c r="D5" t="n">
         <v>3867.25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5315.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6633.3</v>
       </c>
     </row>
   </sheetData>
